--- a/Categorias_adicionar.xlsx
+++ b/Categorias_adicionar.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/beed14bf7882b635/Logtudo/Controle_orcamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{8419A540-C8A9-4571-A24C-6F211B92EB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{716D6AD2-7411-4702-986E-FAF9E15BF24E}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{8419A540-C8A9-4571-A24C-6F211B92EB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5BE0769-B882-4E87-ADB0-E8316BC7FF5E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4E54B509-60D3-4B6C-B751-F3E3729FCBF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E54B509-60D3-4B6C-B751-F3E3729FCBF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$235</definedName>
@@ -1671,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C45D2F1-032F-4114-A197-25DF476942DA}">
   <dimension ref="A1:N235"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="N165" sqref="N165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6401,8 +6401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507E56FE-99A8-48F0-AA13-3B7A2E1965CB}">
   <dimension ref="A1:A220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
